--- a/public/templates/测试记录表批导模板V2.0.xlsx
+++ b/public/templates/测试记录表批导模板V2.0.xlsx
@@ -664,10 +664,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -717,8 +717,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,6 +758,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -747,15 +807,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,7 +840,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,59 +855,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -838,30 +862,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -900,25 +900,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,19 +978,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,127 +1068,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1104,16 +1104,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1135,11 +1155,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1149,24 +1182,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1185,31 +1200,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1218,137 +1218,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1411,6 +1411,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1763,7 +1766,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1838,17 +1841,17 @@
       <c r="I2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="23" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1001">
+      <formula1>备注!$D$2:$D$57</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3 H4:H1047">
       <formula1>"RANGE_VALUE,DEFINITE_VALUE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1001">
-      <formula1>备注!$D$2:$D$57</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J26">
       <formula1>备注!$F$2:$F$7</formula1>
